--- a/resultados/TST 28-07-2023.xlsx
+++ b/resultados/TST 28-07-2023.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Numero Processo</t>
   </si>
   <si>
     <t>3775/2023</t>
+  </si>
+  <si>
+    <t>3771/2023</t>
   </si>
 </sst>
 </file>
@@ -377,31 +380,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/TST 28-07-2023.xlsx
+++ b/resultados/TST 28-07-2023.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Numero Processo</t>
   </si>
   <si>
     <t>3775/2023</t>
-  </si>
-  <si>
-    <t>3771/2023</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,11 +398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
